--- a/changes/template.xlsx
+++ b/changes/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385584C-7BEE-4A38-996D-1419E5973041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A7B923-DAA1-4BE8-B614-786DCAA3E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>magazine_capacity</t>
   </si>
   <si>
-    <t>bullet_deviation</t>
-  </si>
-  <si>
     <t>bullet_damage</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>barrel_deviation</t>
   </si>
 </sst>
 </file>
@@ -631,9 +631,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,7 +671,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -777,7 +777,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -919,7 +919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,7 +930,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,22 +980,22 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>3</v>

--- a/changes/template.xlsx
+++ b/changes/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A7B923-DAA1-4BE8-B614-786DCAA3E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326E017-4350-41AE-99A3-BD75EB1C1CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>bullet_velocity</t>
   </si>
   <si>
-    <t>buck_bullet_deviation</t>
-  </si>
-  <si>
     <t>fire_rate</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>barrel_deviation</t>
+  </si>
+  <si>
+    <t>buck_barrel_deviation</t>
   </si>
 </sst>
 </file>
@@ -568,9 +568,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -930,7 +929,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,766 +939,753 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4">
         <f t="shared" ref="N4:N36" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19">
         <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20">
         <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24">
         <f>C24-D24*20-E24*0.8-F24*0.6-H24*5+I24*10+J24/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25">
         <f>C25-D25*20-E25*0.8-F25*0.6-H25*5+I25*10+J25/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28">
         <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29">
         <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30">
         <f t="shared" ref="N30:N31" si="1">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37">
         <f>C37-D37*20-E37*0.8-F37*0.6-H37*5+I37*10+J37/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38">
         <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39">
         <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
         <v>0</v>
       </c>
